--- a/docs/24h.xlsx
+++ b/docs/24h.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ростислав\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\wa\weather-analyzer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="7080" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="7080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="csvReportFile" sheetId="1" r:id="rId1"/>
-    <sheet name="brest-24h-ds" sheetId="4" r:id="rId2"/>
-    <sheet name="minsk-24h-ds" sheetId="5" r:id="rId3"/>
-    <sheet name="brest-24h-aw" sheetId="3" r:id="rId4"/>
-    <sheet name="minsk-24h-aw" sheetId="2" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId2"/>
+    <sheet name="brest-24h-ds" sheetId="4" r:id="rId3"/>
+    <sheet name="minsk-24h-ds" sheetId="5" r:id="rId4"/>
+    <sheet name="brest-24h-aw" sheetId="3" r:id="rId5"/>
+    <sheet name="minsk-24h-aw" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">csvReportFile!$A$2:$I$917</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="39">
   <si>
     <t>Location</t>
   </si>
@@ -107,6 +108,42 @@
   </si>
   <si>
     <t>Dark Sky</t>
+  </si>
+  <si>
+    <t>Best weather service</t>
+  </si>
+  <si>
+    <t>UZDA</t>
+  </si>
+  <si>
+    <t>NALIBOKI</t>
+  </si>
+  <si>
+    <t>SLUTSK</t>
+  </si>
+  <si>
+    <t>SOLIGORSK</t>
+  </si>
+  <si>
+    <t>LIDA</t>
+  </si>
+  <si>
+    <t>POSTAVY</t>
+  </si>
+  <si>
+    <t>ORSA</t>
+  </si>
+  <si>
+    <t>STOLIN</t>
+  </si>
+  <si>
+    <t>BORISOV</t>
+  </si>
+  <si>
+    <t>MOSTY</t>
+  </si>
+  <si>
+    <t>AerisWeather</t>
   </si>
 </sst>
 </file>
@@ -1056,11 +1093,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="371893616"/>
-        <c:axId val="371894008"/>
+        <c:axId val="334517112"/>
+        <c:axId val="334513976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="371893616"/>
+        <c:axId val="334517112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1140,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371894008"/>
+        <c:crossAx val="334513976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1111,7 +1148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371894008"/>
+        <c:axId val="334513976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1199,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371893616"/>
+        <c:crossAx val="334517112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1616,11 +1653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="373578760"/>
-        <c:axId val="373584640"/>
+        <c:axId val="334515936"/>
+        <c:axId val="334514368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373578760"/>
+        <c:axId val="334515936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1700,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373584640"/>
+        <c:crossAx val="334514368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1671,7 +1708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373584640"/>
+        <c:axId val="334514368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,7 +1759,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373578760"/>
+        <c:crossAx val="334515936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2237,11 +2274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="376541232"/>
-        <c:axId val="376536528"/>
+        <c:axId val="334516720"/>
+        <c:axId val="334515544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="376541232"/>
+        <c:axId val="334516720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,7 +2378,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376536528"/>
+        <c:crossAx val="334515544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2349,7 +2386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="376536528"/>
+        <c:axId val="334515544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2493,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376541232"/>
+        <c:crossAx val="334516720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2994,7 +3031,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3003,11 +3039,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="334460984"/>
-        <c:axId val="420180672"/>
+        <c:axId val="334932288"/>
+        <c:axId val="334931504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334460984"/>
+        <c:axId val="334932288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3106,7 +3142,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420180672"/>
+        <c:crossAx val="334931504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3114,7 +3150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420180672"/>
+        <c:axId val="334931504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3222,7 +3258,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334460984"/>
+        <c:crossAx val="334932288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5934,7 +5970,7 @@
   <dimension ref="A1:I917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A216" sqref="A216:I585"/>
+      <selection activeCell="I920" sqref="I920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32336,6 +32372,192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33078,11 +33300,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -33822,7 +34044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J32"/>
   <sheetViews>
@@ -34584,7 +34806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J29"/>
   <sheetViews>
